--- a/biology/Médecine/Medicinicum_Lech/Medicinicum_Lech.xlsx
+++ b/biology/Médecine/Medicinicum_Lech/Medicinicum_Lech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Medicinicum Lech est un congrès de santé qui se tient chaque année depuis 2014 à Lech am Arlberg dans le Vorarlberg ( Autriche ). Il s'agit du plus grand événement de santé publique de la région de Vorarlberg[1]. 
+Le Medicinicum Lech est un congrès de santé qui se tient chaque année depuis 2014 à Lech am Arlberg dans le Vorarlberg ( Autriche ). Il s'agit du plus grand événement de santé publique de la région de Vorarlberg. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe de l'évènement est d'inviter des chercheurs et d'autres professionnels de santé à donner des conférences dans une approche interdisciplinaire qui s'appuie sur le rapprochement des médecines occidentales, orientales et des médecines alternatives.
-Le Dr. Markus M. Metka, l'un des deux scientifiques organisateur du Medicinicum explique que  « Penser est plus facile dans les montagnes »[2] ce qui a donné l'impulsion du choix de Lech am Arlberg. Ce choix  correspondant aussi à la spécificité de l'approche holistique de l'évènement.  
-En plus des conférences et des discussions, le Medicinicum est accompagné d'événements comme des cours de cuisine, des promenades basées sur la découverte des plantes et autres activités thématiques liées à la santé[3].   
+Le Dr. Markus M. Metka, l'un des deux scientifiques organisateur du Medicinicum explique que  « Penser est plus facile dans les montagnes » ce qui a donné l'impulsion du choix de Lech am Arlberg. Ce choix  correspondant aussi à la spécificité de l'approche holistique de l'évènement.  
+En plus des conférences et des discussions, le Medicinicum est accompagné d'événements comme des cours de cuisine, des promenades basées sur la découverte des plantes et autres activités thématiques liées à la santé.   
 </t>
         </is>
       </c>
@@ -545,14 +559,16 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2014 : « Jung bleiben - alt werden » (Rester jeune - vieillir).
 2015 : « Lass Nahrung deine Medizin sein » (Que la nourriture soit votre médicament).
 2016 : « Stress - Fluch oder Segen? Gesund sein in hektischen Zeiten » (Stress - malédiction ou bénédiction ? Être en bonne santé dans des périodes mouvementées).
-2017 : « Viele Wege führen zu Gesundheit - Rezepte aus Ost und West » (De nombreux itinéraires mènent à la santé. Recettes de l'Est et de l'Ouest)[4].
-2018 : « Genuss - Sucht - Gesundheit » (Joie - Addiction - Santé) [5].
-2019 : « Der gesunde Mensch in einer gesunden Umwelt - Ökologie als Schlüsselfrage für unsere Gesundheit und Zukunft » (L'homme sain dans un environnement sain - l'écologie comme question clé pour notre santé et notre avenir)[6],[7].
+2017 : « Viele Wege führen zu Gesundheit - Rezepte aus Ost und West » (De nombreux itinéraires mènent à la santé. Recettes de l'Est et de l'Ouest).
+2018 : « Genuss - Sucht - Gesundheit » (Joie - Addiction - Santé) .
+2019 : « Der gesunde Mensch in einer gesunden Umwelt - Ökologie als Schlüsselfrage für unsere Gesundheit und Zukunft » (L'homme sain dans un environnement sain - l'écologie comme question clé pour notre santé et notre avenir),.
 2020 : « Ewig Jung! Auf dem Weg zur Unsterblichkeit » (Éternellement jeune ! Sur le chemin de l'immortalité).</t>
         </is>
       </c>
